--- a/pred_ohlcv/54_21/2019-11-02 ITC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 ITC ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-2230.9352</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-2230.9352</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-2230.9352</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-2230.9352</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-4107.7936</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-98095.6406</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-97217.5506</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-96426.107</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-96426.107</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-96426.107</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-96426.107</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-84337.67450000001</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-81668.54890000001</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-81292.58610000001</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-81581.96710000001</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-81581.96710000001</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-81581.96710000001</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-84781.96710000001</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-84673.95030000001</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-84673.95030000001</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-84673.95030000001</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-84475.78300000001</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-83725.78300000001</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-91092.08300000001</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1312339.9233</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1312339.9233</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1311756.8741</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1339240.9266</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1324352.0408</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1323478.8712</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1323899.1027</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1322769.2516</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1325447.7679</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1324787.5271</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1325075.3796</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1325367.3675</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>1324784.3182</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1324784.3182</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>1325034.3182</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>1325034.3182</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>1323273.1996</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>1312880.476</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-02 ITC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 ITC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>7773.511899999998</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-2230.9352</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-2230.9352</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-2230.9352</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-2230.9352</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-4107.7936</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-4009.0116</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-4218.0331</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-98095.6406</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-97217.5506</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-96426.107</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-96426.107</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-96426.107</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-96426.107</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-84337.67450000001</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-78830.87480000001</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-81668.54890000001</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-81292.58610000001</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-81581.96710000001</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-81581.96710000001</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-81581.96710000001</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-84781.96710000001</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-84673.95030000001</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-84673.95030000001</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-84673.95030000001</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-84475.78300000001</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-91092.08300000001</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1312339.9233</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1311756.8741</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1339240.9266</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1324352.0408</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1323478.8712</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1323899.1027</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1322769.2516</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1325447.7679</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1324787.5271</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1325075.3796</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1325367.3675</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>1324784.3182</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1324784.3182</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
